--- a/WebClient/wwwroot/Template/SampleImportUser.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportUser.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800077E0-A701-4FDE-B9B2-02192FA7B85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FEB98C-27AD-44EB-A0E6-8CDAD392EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB26A511-5436-4262-BF95-9DB6E2D2EF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,42 +37,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>EmailFe</t>
   </si>
   <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Trungkute</t>
-  </si>
-  <si>
     <t>23-12-2001</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>haiphong</t>
-  </si>
-  <si>
-    <t>trungpxhs160643@fpt.edu.vn</t>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Ngày Sinh</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Tên đầy đủ</t>
+  </si>
+  <si>
+    <t>Bộ môn/Môn</t>
+  </si>
+  <si>
+    <t>Phạm Văn A</t>
+  </si>
+  <si>
+    <t>Phamvana@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
   </si>
 </sst>
 </file>
@@ -432,66 +441,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B16933D-D063-4267-90D2-67DFB2DC3770}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>858676478</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>858676478</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A5C4D32E-0AFC-4248-A8D9-D875C95DFB18}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A5C4D32E-0AFC-4248-A8D9-D875C95DFB18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3C661-35BE-44C5-98D2-3472905BB823}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002F565F-D270-4165-B3AE-591D71111DDC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F433E5-C2F0-49A2-B520-0D20263D3484}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebClient/wwwroot/Template/SampleImportUser.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportUser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\Tài liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\SEP\New folder\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32E1B6-01A2-473D-A2DA-298649CD10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD00095F-945F-4391-9C7D-DC30FB8B24E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Số thứ tự</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Bộ môn/Môn</t>
-  </si>
-  <si>
     <t>lienkt@fpt.edu.vn</t>
   </si>
   <si>
@@ -93,10 +90,13 @@
     <t>12/12/2002</t>
   </si>
   <si>
-    <t>Chinese</t>
-  </si>
-  <si>
     <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Bộ môn</t>
+  </si>
+  <si>
+    <t>Môn</t>
   </si>
 </sst>
 </file>
@@ -104,13 +104,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,19 +197,19 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -429,15 +436,17 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -462,101 +471,104 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>858676478</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>858676479</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>858676477</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/WebClient/wwwroot/Template/SampleImportUser.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\SEP\New folder\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD00095F-945F-4391-9C7D-DC30FB8B24E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F35D28-8F79-4351-BF66-DED4D56D63A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Số thứ tự</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Môn</t>
+  </si>
+  <si>
+    <t>lienkt@fe.edu.vn</t>
+  </si>
+  <si>
+    <t>trungpxhs160623@fe.edu.vn</t>
+  </si>
+  <si>
+    <t>hoanglm@fe.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -148,16 +157,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,26 +202,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -438,7 +451,7 @@
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
@@ -447,31 +460,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J1" t="s">
@@ -489,10 +502,12 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>858676478</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5" t="s">
+        <v>982915846</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -501,7 +516,7 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -509,16 +524,19 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>858676479</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>982915846</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -527,7 +545,7 @@
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -542,9 +560,12 @@
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>858676477</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>982915846</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -553,7 +574,7 @@
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1557,8 +1578,12 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{19BB584B-DE18-41DF-BD86-651DB897640F}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{3676EA40-2B6B-47E7-8C1F-4A6209FBDB87}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{51759727-CD0A-47B7-AD47-FBA9CD6C9C6B}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{4EE0C32E-5C03-402B-85DB-91BA267330B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId7"/>
 </worksheet>
 </file>